--- a/0. Nomina/3. Resultados/2025/02. Resultados MAR 17 al MAR 31 - 2025/Edy Uribe.xlsx
+++ b/0. Nomina/3. Resultados/2025/02. Resultados MAR 17 al MAR 31 - 2025/Edy Uribe.xlsx
@@ -562,7 +562,7 @@
     <col min="4" max="4" width="64.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="18.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="6.71" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="11.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="8.71" hidden="0" customWidth="1"/>
     <col min="8" max="8" width="16.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1028,10 +1028,10 @@
         <v>140000</v>
       </c>
       <c r="G18" t="n">
-        <v>21829.1345555556</v>
+        <v>0</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>55170.8654444444</v>
+        <v>77000</v>
       </c>
     </row>
     <row r="19">
